--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="H2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="I2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="J2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.967318999999998</v>
+        <v>11.423784</v>
       </c>
       <c r="N2">
-        <v>29.901957</v>
+        <v>34.271352</v>
       </c>
       <c r="O2">
-        <v>0.08264792537087798</v>
+        <v>0.09117661358647419</v>
       </c>
       <c r="P2">
-        <v>0.08549607545086686</v>
+        <v>0.0941934010519699</v>
       </c>
       <c r="Q2">
-        <v>30.52560218251099</v>
+        <v>20.842412121328</v>
       </c>
       <c r="R2">
-        <v>274.730419642599</v>
+        <v>187.581709091952</v>
       </c>
       <c r="S2">
-        <v>0.02033202926416675</v>
+        <v>0.01738379308843808</v>
       </c>
       <c r="T2">
-        <v>0.02300351955079528</v>
+        <v>0.01898422757605951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="H3">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="I3">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="J3">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>224.714661</v>
       </c>
       <c r="O3">
-        <v>0.6211031783662234</v>
+        <v>0.5978381539547241</v>
       </c>
       <c r="P3">
-        <v>0.6425071647241005</v>
+        <v>0.6176190010195821</v>
       </c>
       <c r="Q3">
-        <v>229.401384874703</v>
+        <v>136.6621186776206</v>
       </c>
       <c r="R3">
-        <v>2064.612463872327</v>
+        <v>1229.959068098586</v>
       </c>
       <c r="S3">
-        <v>0.1527961886755208</v>
+        <v>0.1139842154684328</v>
       </c>
       <c r="T3">
-        <v>0.1728725680952532</v>
+        <v>0.1244781432638276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="H4">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="I4">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="J4">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.558087666666667</v>
+        <v>12.468921</v>
       </c>
       <c r="N4">
-        <v>28.674263</v>
+        <v>37.406763</v>
       </c>
       <c r="O4">
-        <v>0.07925462365185423</v>
+        <v>0.09951816244575996</v>
       </c>
       <c r="P4">
-        <v>0.08198583634328684</v>
+        <v>0.1028109491949716</v>
       </c>
       <c r="Q4">
-        <v>29.27230298721567</v>
+        <v>22.749238797782</v>
       </c>
       <c r="R4">
-        <v>263.450726884941</v>
+        <v>204.743149180038</v>
       </c>
       <c r="S4">
-        <v>0.0194972507800882</v>
+        <v>0.01897419827791566</v>
       </c>
       <c r="T4">
-        <v>0.02205905685454453</v>
+        <v>0.02072105301464974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="H5">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="I5">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="J5">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.0527</v>
+        <v>12.03849</v>
       </c>
       <c r="N5">
-        <v>24.1054</v>
+        <v>24.07698</v>
       </c>
       <c r="O5">
-        <v>0.09993967787301491</v>
+        <v>0.09608276477344405</v>
       </c>
       <c r="P5">
-        <v>0.0689224821363139</v>
+        <v>0.06617458900542524</v>
       </c>
       <c r="Q5">
-        <v>36.9122253863</v>
+        <v>21.96392805558</v>
       </c>
       <c r="R5">
-        <v>221.4733523178</v>
+        <v>131.78356833348</v>
       </c>
       <c r="S5">
-        <v>0.0245859342027904</v>
+        <v>0.01831920309918596</v>
       </c>
       <c r="T5">
-        <v>0.01854423910046224</v>
+        <v>0.01333717058096317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="H6">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="I6">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="J6">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.11675466666667</v>
+        <v>14.45683633333333</v>
       </c>
       <c r="N6">
-        <v>42.350264</v>
+        <v>43.370509</v>
       </c>
       <c r="O6">
-        <v>0.1170545947380294</v>
+        <v>0.1153843052395978</v>
       </c>
       <c r="P6">
-        <v>0.121088441345432</v>
+        <v>0.1192020597280513</v>
       </c>
       <c r="Q6">
-        <v>43.23353522273866</v>
+        <v>26.37614128820378</v>
       </c>
       <c r="R6">
-        <v>389.101817004648</v>
+        <v>237.385271593834</v>
       </c>
       <c r="S6">
-        <v>0.02879633620612817</v>
+        <v>0.02199924749383221</v>
       </c>
       <c r="T6">
-        <v>0.03257997882564481</v>
+        <v>0.02402460261694774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.441306</v>
       </c>
       <c r="I7">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="J7">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.967318999999998</v>
+        <v>11.423784</v>
       </c>
       <c r="N7">
-        <v>29.901957</v>
+        <v>34.271352</v>
       </c>
       <c r="O7">
-        <v>0.08264792537087798</v>
+        <v>0.09117661358647419</v>
       </c>
       <c r="P7">
-        <v>0.08549607545086686</v>
+        <v>0.0941934010519699</v>
       </c>
       <c r="Q7">
-        <v>61.27012655953799</v>
+        <v>70.223165473968</v>
       </c>
       <c r="R7">
-        <v>551.431139035842</v>
+        <v>632.008489265712</v>
       </c>
       <c r="S7">
-        <v>0.04080987489712655</v>
+        <v>0.05857023512961933</v>
       </c>
       <c r="T7">
-        <v>0.04617201474896819</v>
+        <v>0.06396248892444177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.441306</v>
       </c>
       <c r="I8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="J8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>224.714661</v>
       </c>
       <c r="O8">
-        <v>0.6211031783662234</v>
+        <v>0.5978381539547241</v>
       </c>
       <c r="P8">
-        <v>0.6425071647241005</v>
+        <v>0.6176190010195821</v>
       </c>
       <c r="Q8">
         <v>460.4479806874739</v>
@@ -948,10 +948,10 @@
         <v>4144.031826187266</v>
       </c>
       <c r="S8">
-        <v>0.306688194453634</v>
+        <v>0.3840405984521036</v>
       </c>
       <c r="T8">
-        <v>0.3469849362033859</v>
+        <v>0.4193971984347798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.441306</v>
       </c>
       <c r="I9">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="J9">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.558087666666667</v>
+        <v>12.468921</v>
       </c>
       <c r="N9">
-        <v>28.674263</v>
+        <v>37.406763</v>
       </c>
       <c r="O9">
-        <v>0.07925462365185423</v>
+        <v>0.09951816244575996</v>
       </c>
       <c r="P9">
-        <v>0.08198583634328684</v>
+        <v>0.1028109491949716</v>
       </c>
       <c r="Q9">
-        <v>58.754539811942</v>
+        <v>76.647729216942</v>
       </c>
       <c r="R9">
-        <v>528.7908583074781</v>
+        <v>689.829562952478</v>
       </c>
       <c r="S9">
-        <v>0.03913433110071374</v>
+        <v>0.06392869777497966</v>
       </c>
       <c r="T9">
-        <v>0.0442763158997183</v>
+        <v>0.06981427706986051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.441306</v>
       </c>
       <c r="I10">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="J10">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.0527</v>
+        <v>12.03849</v>
       </c>
       <c r="N10">
-        <v>24.1054</v>
+        <v>24.07698</v>
       </c>
       <c r="O10">
-        <v>0.09993967787301491</v>
+        <v>0.09608276477344405</v>
       </c>
       <c r="P10">
-        <v>0.0689224821363139</v>
+        <v>0.06617458900542524</v>
       </c>
       <c r="Q10">
-        <v>74.08917627540001</v>
+        <v>74.00182595598</v>
       </c>
       <c r="R10">
-        <v>444.5350576524</v>
+        <v>444.01095573588</v>
       </c>
       <c r="S10">
-        <v>0.04934819274597284</v>
+        <v>0.06172185940364164</v>
       </c>
       <c r="T10">
-        <v>0.03722147297348391</v>
+        <v>0.04493617779024318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.441306</v>
       </c>
       <c r="I11">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="J11">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.11675466666667</v>
+        <v>14.45683633333333</v>
       </c>
       <c r="N11">
-        <v>42.350264</v>
+        <v>43.370509</v>
       </c>
       <c r="O11">
-        <v>0.1170545947380294</v>
+        <v>0.1153843052395978</v>
       </c>
       <c r="P11">
-        <v>0.121088441345432</v>
+        <v>0.1192020597280513</v>
       </c>
       <c r="Q11">
-        <v>86.777130844976</v>
+        <v>88.867647538306</v>
       </c>
       <c r="R11">
-        <v>780.994177604784</v>
+        <v>799.808827844754</v>
       </c>
       <c r="S11">
-        <v>0.05779919273177613</v>
+        <v>0.07412082575036058</v>
       </c>
       <c r="T11">
-        <v>0.06539361333543142</v>
+        <v>0.08094474071404893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="H12">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="I12">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="J12">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.967318999999998</v>
+        <v>11.423784</v>
       </c>
       <c r="N12">
-        <v>29.901957</v>
+        <v>34.271352</v>
       </c>
       <c r="O12">
-        <v>0.08264792537087798</v>
+        <v>0.09117661358647419</v>
       </c>
       <c r="P12">
-        <v>0.08549607545086686</v>
+        <v>0.0941934010519699</v>
       </c>
       <c r="Q12">
-        <v>0.1754082022016666</v>
+        <v>0.107265523832</v>
       </c>
       <c r="R12">
-        <v>1.578673819815</v>
+        <v>0.965389714488</v>
       </c>
       <c r="S12">
-        <v>0.0001168332299889062</v>
+        <v>8.946573270712206E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001321843213637785</v>
+        <v>9.770237262548543E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="H13">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="I13">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="J13">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>224.714661</v>
       </c>
       <c r="O13">
-        <v>0.6211031783662234</v>
+        <v>0.5978381539547241</v>
       </c>
       <c r="P13">
-        <v>0.6425071647241005</v>
+        <v>0.6176190010195821</v>
       </c>
       <c r="Q13">
-        <v>1.318201169721666</v>
+        <v>0.7033319206343331</v>
       </c>
       <c r="R13">
-        <v>11.863810527495</v>
+        <v>6.329987285709</v>
       </c>
       <c r="S13">
-        <v>0.0008780074050167381</v>
+        <v>0.0005866200375286492</v>
       </c>
       <c r="T13">
-        <v>0.000993371603229064</v>
+        <v>0.0006406270620263723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="H14">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="I14">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="J14">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.558087666666667</v>
+        <v>12.468921</v>
       </c>
       <c r="N14">
-        <v>28.674263</v>
+        <v>37.406763</v>
       </c>
       <c r="O14">
-        <v>0.07925462365185423</v>
+        <v>0.09951816244575996</v>
       </c>
       <c r="P14">
-        <v>0.08198583634328684</v>
+        <v>0.1028109491949716</v>
       </c>
       <c r="Q14">
-        <v>0.1682064127872222</v>
+        <v>0.117079011883</v>
       </c>
       <c r="R14">
-        <v>1.513857715085</v>
+        <v>1.053711106947</v>
       </c>
       <c r="S14">
-        <v>0.0001120363715271674</v>
+        <v>9.765075681860067E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001267571883426059</v>
+        <v>0.0001066409488992212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="H15">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="I15">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="J15">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.0527</v>
+        <v>12.03849</v>
       </c>
       <c r="N15">
-        <v>24.1054</v>
+        <v>24.07698</v>
       </c>
       <c r="O15">
-        <v>0.09993967787301491</v>
+        <v>0.09608276477344405</v>
       </c>
       <c r="P15">
-        <v>0.0689224821363139</v>
+        <v>0.06617458900542524</v>
       </c>
       <c r="Q15">
-        <v>0.2121074321666666</v>
+        <v>0.11303740827</v>
       </c>
       <c r="R15">
-        <v>1.272644593</v>
+        <v>0.6782244496199999</v>
       </c>
       <c r="S15">
-        <v>0.0001412772954379497</v>
+        <v>9.427982256469151E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001065601137812627</v>
+        <v>6.863978029394231E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="H16">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="I16">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="J16">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.11675466666667</v>
+        <v>14.45683633333333</v>
       </c>
       <c r="N16">
-        <v>42.350264</v>
+        <v>43.370509</v>
       </c>
       <c r="O16">
-        <v>0.1170545947380294</v>
+        <v>0.1153843052395978</v>
       </c>
       <c r="P16">
-        <v>0.121088441345432</v>
+        <v>0.1192020597280513</v>
       </c>
       <c r="Q16">
-        <v>0.2484313542088888</v>
+        <v>0.1357448742245556</v>
       </c>
       <c r="R16">
-        <v>2.23588218788</v>
+        <v>1.221703868021</v>
       </c>
       <c r="S16">
-        <v>0.0001654713814886061</v>
+        <v>0.0001132191798434399</v>
       </c>
       <c r="T16">
-        <v>0.0001872131949897747</v>
+        <v>0.0001236426748286724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="H17">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="I17">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="J17">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.967318999999998</v>
+        <v>11.423784</v>
       </c>
       <c r="N17">
-        <v>29.901957</v>
+        <v>34.271352</v>
       </c>
       <c r="O17">
-        <v>0.08264792537087798</v>
+        <v>0.09117661358647419</v>
       </c>
       <c r="P17">
-        <v>0.08549607545086686</v>
+        <v>0.0941934010519699</v>
       </c>
       <c r="Q17">
-        <v>31.89261499970149</v>
+        <v>17.711109135756</v>
       </c>
       <c r="R17">
-        <v>191.3556899982089</v>
+        <v>106.266654814536</v>
       </c>
       <c r="S17">
-        <v>0.02124254838963489</v>
+        <v>0.01477210290202775</v>
       </c>
       <c r="T17">
-        <v>0.01602244979553469</v>
+        <v>0.01075472853143049</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="H18">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="I18">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="J18">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>224.714661</v>
       </c>
       <c r="O18">
-        <v>0.6211031783662234</v>
+        <v>0.5978381539547241</v>
       </c>
       <c r="P18">
-        <v>0.6425071647241005</v>
+        <v>0.6176190010195821</v>
       </c>
       <c r="Q18">
-        <v>239.6745526743094</v>
+        <v>116.1304020155205</v>
       </c>
       <c r="R18">
-        <v>1438.047316045857</v>
+        <v>696.782412093123</v>
       </c>
       <c r="S18">
-        <v>0.1596387841823496</v>
+        <v>0.09685956059995188</v>
       </c>
       <c r="T18">
-        <v>0.1204094893920521</v>
+        <v>0.07051794093467428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="H19">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="I19">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="J19">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.558087666666667</v>
+        <v>12.468921</v>
       </c>
       <c r="N19">
-        <v>28.674263</v>
+        <v>37.406763</v>
       </c>
       <c r="O19">
-        <v>0.07925462365185423</v>
+        <v>0.09951816244575996</v>
       </c>
       <c r="P19">
-        <v>0.08198583634328684</v>
+        <v>0.1028109491949716</v>
       </c>
       <c r="Q19">
-        <v>30.58318993165516</v>
+        <v>19.3314597541515</v>
       </c>
       <c r="R19">
-        <v>183.499139589931</v>
+        <v>115.988758524909</v>
       </c>
       <c r="S19">
-        <v>0.0203703864370689</v>
+        <v>0.01612357027139648</v>
       </c>
       <c r="T19">
-        <v>0.01536461106346511</v>
+        <v>0.01173865511067549</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="H20">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="I20">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="J20">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.0527</v>
+        <v>12.03849</v>
       </c>
       <c r="N20">
-        <v>24.1054</v>
+        <v>24.07698</v>
       </c>
       <c r="O20">
-        <v>0.09993967787301491</v>
+        <v>0.09608276477344405</v>
       </c>
       <c r="P20">
-        <v>0.0689224821363139</v>
+        <v>0.06617458900542524</v>
       </c>
       <c r="Q20">
-        <v>38.56524716494999</v>
+        <v>18.664131799035</v>
       </c>
       <c r="R20">
-        <v>154.2609886598</v>
+        <v>74.65652719614</v>
       </c>
       <c r="S20">
-        <v>0.02568695383139161</v>
+        <v>0.0155669796509661</v>
       </c>
       <c r="T20">
-        <v>0.01291646434048721</v>
+        <v>0.007555622076324313</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="H21">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="I21">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="J21">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.11675466666667</v>
+        <v>14.45683633333333</v>
       </c>
       <c r="N21">
-        <v>42.350264</v>
+        <v>43.370509</v>
       </c>
       <c r="O21">
-        <v>0.1170545947380294</v>
+        <v>0.1153843052395978</v>
       </c>
       <c r="P21">
-        <v>0.121088441345432</v>
+        <v>0.1192020597280513</v>
       </c>
       <c r="Q21">
-        <v>45.16964106689466</v>
+        <v>22.4134670313645</v>
       </c>
       <c r="R21">
-        <v>271.0178464013679</v>
+        <v>134.480802188187</v>
       </c>
       <c r="S21">
-        <v>0.03008590816760964</v>
+        <v>0.01869414494827402</v>
       </c>
       <c r="T21">
-        <v>0.02269266117825132</v>
+        <v>0.01361014443098023</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="H22">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="I22">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="J22">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.967318999999998</v>
+        <v>11.423784</v>
       </c>
       <c r="N22">
-        <v>29.901957</v>
+        <v>34.271352</v>
       </c>
       <c r="O22">
-        <v>0.08264792537087798</v>
+        <v>0.09117661358647419</v>
       </c>
       <c r="P22">
-        <v>0.08549607545086686</v>
+        <v>0.0941934010519699</v>
       </c>
       <c r="Q22">
-        <v>0.220158142072</v>
+        <v>0.432843367832</v>
       </c>
       <c r="R22">
-        <v>1.981423278648</v>
+        <v>3.895590310488</v>
       </c>
       <c r="S22">
-        <v>0.0001466395899608842</v>
+        <v>0.0003610167336819148</v>
       </c>
       <c r="T22">
-        <v>0.0001659070342049326</v>
+        <v>0.0003942536474126275</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="H23">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="I23">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="J23">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>224.714661</v>
       </c>
       <c r="O23">
-        <v>0.6211031783662234</v>
+        <v>0.5978381539547241</v>
       </c>
       <c r="P23">
-        <v>0.6425071647241005</v>
+        <v>0.6176190010195821</v>
       </c>
       <c r="Q23">
-        <v>1.654499144056</v>
+        <v>2.838121200134333</v>
       </c>
       <c r="R23">
-        <v>14.890492296504</v>
+        <v>25.543090801209</v>
       </c>
       <c r="S23">
-        <v>0.001102003649702228</v>
+        <v>0.002367159396707161</v>
       </c>
       <c r="T23">
-        <v>0.001246799430180333</v>
+        <v>0.00258509132427405</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="H24">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="I24">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="J24">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.558087666666667</v>
+        <v>12.468921</v>
       </c>
       <c r="N24">
-        <v>28.674263</v>
+        <v>37.406763</v>
       </c>
       <c r="O24">
-        <v>0.07925462365185423</v>
+        <v>0.09951816244575996</v>
       </c>
       <c r="P24">
-        <v>0.08198583634328684</v>
+        <v>0.1028109491949716</v>
       </c>
       <c r="Q24">
-        <v>0.2111190403813333</v>
+        <v>0.472443260383</v>
       </c>
       <c r="R24">
-        <v>1.900071363432</v>
+        <v>4.251989343447</v>
       </c>
       <c r="S24">
-        <v>0.0001406189624562216</v>
+        <v>0.0003940453646495623</v>
       </c>
       <c r="T24">
-        <v>0.0001590953372162977</v>
+        <v>0.0004303230508866333</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="H25">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="I25">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="J25">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.0527</v>
+        <v>12.03849</v>
       </c>
       <c r="N25">
-        <v>24.1054</v>
+        <v>24.07698</v>
       </c>
       <c r="O25">
-        <v>0.09993967787301491</v>
+        <v>0.09608276477344405</v>
       </c>
       <c r="P25">
-        <v>0.0689224821363139</v>
+        <v>0.06617458900542524</v>
       </c>
       <c r="Q25">
-        <v>0.2662200376</v>
+        <v>0.45613437327</v>
       </c>
       <c r="R25">
-        <v>1.5973202256</v>
+        <v>2.73680623962</v>
       </c>
       <c r="S25">
-        <v>0.0001773197974221101</v>
+        <v>0.0003804427970856587</v>
       </c>
       <c r="T25">
-        <v>0.000133745608099282</v>
+        <v>0.0002769787776006293</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="H26">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="I26">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="J26">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.11675466666667</v>
+        <v>14.45683633333333</v>
       </c>
       <c r="N26">
-        <v>42.350264</v>
+        <v>43.370509</v>
       </c>
       <c r="O26">
-        <v>0.1170545947380294</v>
+        <v>0.1153843052395978</v>
       </c>
       <c r="P26">
-        <v>0.121088441345432</v>
+        <v>0.1192020597280513</v>
       </c>
       <c r="Q26">
-        <v>0.3118108770773333</v>
+        <v>0.5477647097245556</v>
       </c>
       <c r="R26">
-        <v>2.806297893696</v>
+        <v>4.929882387521</v>
       </c>
       <c r="S26">
-        <v>0.0002076862510268206</v>
+        <v>0.0004568678672875844</v>
       </c>
       <c r="T26">
-        <v>0.0002349748111147349</v>
+        <v>0.0004989292912457083</v>
       </c>
     </row>
   </sheetData>
